--- a/PRIMER_DIA/FIRMA DE LOS ALUMNOS.xlsx
+++ b/PRIMER_DIA/FIRMA DE LOS ALUMNOS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INDUCCIÓN DOCENTE\INDUCCIÓN DOCENTE_final\PRIMER DÍA DE CLASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UCV_PROG-OO_2017-2\PRIMER_DIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="TALLER ATE" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -239,8 +240,36 @@
     <cellStyle name="Normal 7" xfId="6"/>
     <cellStyle name="Normal 8" xfId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3808,21 +3837,21 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -3830,7 +3859,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -3838,7 +3867,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -3846,7 +3875,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -3854,7 +3883,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3862,7 +3891,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -3876,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -3884,7 +3913,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -3892,7 +3921,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -3900,7 +3929,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -3908,7 +3937,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -3916,7 +3945,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -3924,7 +3953,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -3932,7 +3961,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>8</v>
       </c>
@@ -3940,7 +3969,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>9</v>
       </c>
@@ -3948,7 +3977,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>10</v>
       </c>
@@ -3956,7 +3985,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -3964,7 +3993,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>12</v>
       </c>
@@ -3972,7 +4001,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>13</v>
       </c>
@@ -3980,7 +4009,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>14</v>
       </c>
@@ -3988,7 +4017,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>15</v>
       </c>
@@ -3996,7 +4025,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>16</v>
       </c>
@@ -4004,7 +4033,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -4012,7 +4041,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>18</v>
       </c>
@@ -4020,7 +4049,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>19</v>
       </c>
@@ -4028,7 +4057,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>20</v>
       </c>
@@ -4036,7 +4065,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>21</v>
       </c>
@@ -4044,7 +4073,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>22</v>
       </c>
@@ -4052,7 +4081,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>23</v>
       </c>
@@ -4060,7 +4089,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>24</v>
       </c>
@@ -4068,7 +4097,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>25</v>
       </c>
@@ -4076,7 +4105,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>26</v>
       </c>
@@ -4084,7 +4113,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>27</v>
       </c>
@@ -4092,7 +4121,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>28</v>
       </c>
@@ -4100,7 +4129,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>29</v>
       </c>
@@ -4108,7 +4137,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>30</v>
       </c>
@@ -4116,7 +4145,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>31</v>
       </c>
@@ -4124,7 +4153,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>32</v>
       </c>
@@ -4132,7 +4161,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>33</v>
       </c>
@@ -4140,7 +4169,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>34</v>
       </c>
@@ -4148,7 +4177,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>35</v>
       </c>
@@ -4156,7 +4185,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>36</v>
       </c>
@@ -4164,7 +4193,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>37</v>
       </c>
@@ -4172,7 +4201,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>38</v>
       </c>
@@ -4180,7 +4209,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>39</v>
       </c>
@@ -4188,7 +4217,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>40</v>
       </c>
@@ -4196,7 +4225,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>41</v>
       </c>
@@ -4204,7 +4233,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>42</v>
       </c>
@@ -4212,7 +4241,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43</v>
       </c>
@@ -4220,7 +4249,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>44</v>
       </c>
@@ -4228,7 +4257,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>45</v>
       </c>
@@ -4236,7 +4265,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>46</v>
       </c>
@@ -4244,7 +4273,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>47</v>
       </c>
@@ -4252,7 +4281,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>48</v>
       </c>
@@ -4260,7 +4289,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>49</v>
       </c>
@@ -4268,7 +4297,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>50</v>
       </c>
@@ -4276,7 +4305,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>51</v>
       </c>
@@ -4284,7 +4313,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>52</v>
       </c>
@@ -4292,7 +4321,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>53</v>
       </c>
@@ -4300,7 +4329,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>54</v>
       </c>
@@ -4308,7 +4337,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>55</v>
       </c>
@@ -4316,7 +4345,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>56</v>
       </c>
@@ -4324,7 +4353,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>57</v>
       </c>
@@ -4332,7 +4361,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>58</v>
       </c>
@@ -4340,7 +4369,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>59</v>
       </c>
@@ -4348,7 +4377,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>60</v>
       </c>
@@ -4356,10 +4385,10 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C77" s="7" t="s">
         <v>4</v>
       </c>
